--- a/data/trans_orig/P14C01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{746E3724-C6CE-4995-9626-4C10C3A76638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2579776-8553-48F3-B35F-7061DCDAE819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F8B77B9-C2B6-45C1-BEAC-0AAF3F2BE48E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD0D42F3-333B-4C93-AE3F-0346188373B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
   <si>
     <t>Población según el tiempo de diagnóstico del cáncer en 2015 (Tasa respuesta: 1,43%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>56,57%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>51,72%</t>
@@ -92,10 +92,10 @@
     <t>53,33%</t>
   </si>
   <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,10 +104,10 @@
     <t>18,96%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
   </si>
   <si>
     <t>36,28%</t>
@@ -122,10 +122,10 @@
     <t>30,53%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,10 +134,10 @@
     <t>24,47%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
   </si>
   <si>
     <t>11,99%</t>
@@ -152,10 +152,10 @@
     <t>16,13%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,235 +167,232 @@
     <t>29,28%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
   </si>
   <si>
     <t>36,65%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
   </si>
   <si>
     <t>43,52%</t>
   </si>
   <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
+    <t>47,57%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
+    <t>42,35%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CA687E-72A5-497D-AEDE-0234E3C79E9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0B6C1F-EAB0-447F-B092-74A2F0C5B539}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1278,7 +1275,7 @@
         <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,7 +1331,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1346,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -1361,13 +1358,13 @@
         <v>9846</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -1376,13 +1373,13 @@
         <v>9846</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,13 +1394,13 @@
         <v>1927</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1412,13 +1409,13 @@
         <v>4222</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -1427,13 +1424,13 @@
         <v>6149</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1451,10 +1448,10 @@
         <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1636,10 +1633,10 @@
         <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,13 +1651,13 @@
         <v>10206</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -1669,13 +1666,13 @@
         <v>11058</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -1684,13 +1681,13 @@
         <v>21264</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,7 +1743,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C01-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2579776-8553-48F3-B35F-7061DCDAE819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC468A8-FDDF-422C-B8B6-57855AE12DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD0D42F3-333B-4C93-AE3F-0346188373B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9659B6B2-28A6-4AC7-ACD6-D5E614DE5050}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
-  <si>
-    <t>Población según el tiempo de diagnóstico del cáncer en 2015 (Tasa respuesta: 1,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+  <si>
+    <t>Población según el tiempo de diagnóstico del cáncer en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,325 +74,331 @@
     <t>56,57%</t>
   </si>
   <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
     <t>30,25%</t>
   </si>
   <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>31,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0B6C1F-EAB0-447F-B092-74A2F0C5B539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6460D3A9-00B4-4740-84AC-DD86BB15BA10}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1275,7 +1281,7 @@
         <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,7 +1337,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1343,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -1358,13 +1364,13 @@
         <v>9846</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -1373,13 +1379,13 @@
         <v>9846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,13 +1400,13 @@
         <v>1927</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1409,13 +1415,13 @@
         <v>4222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -1424,13 +1430,13 @@
         <v>6149</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,13 +1451,13 @@
         <v>736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1460,13 +1466,13 @@
         <v>3609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1475,13 +1481,13 @@
         <v>4345</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,13 +1555,13 @@
         <v>11695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -1564,13 +1570,13 @@
         <v>34610</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -1579,13 +1585,13 @@
         <v>46305</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,13 +1606,13 @@
         <v>7834</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -1615,13 +1621,13 @@
         <v>25482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -1630,13 +1636,13 @@
         <v>33315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,13 +1657,13 @@
         <v>10206</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -1666,13 +1672,13 @@
         <v>11058</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -1681,13 +1687,13 @@
         <v>21264</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1729,7 +1735,7 @@
         <v>94</v>
       </c>
       <c r="N19" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1743,7 +1749,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
